--- a/1_variable.js/7_WebScraping/espnScraper/IPL/Royal Challengers Bangalore/Umesh Yadav.xlsx
+++ b/1_variable.js/7_WebScraping/espnScraper/IPL/Royal Challengers Bangalore/Umesh Yadav.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -450,9 +450,44 @@
         <v>Kings XI won by 97 runs</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Umesh Yadav</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="D3" t="str">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <v>2</v>
+      </c>
+      <c r="F3" t="str">
+        <v>0</v>
+      </c>
+      <c r="G3" t="str">
+        <v>0</v>
+      </c>
+      <c r="H3" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Sep 24 2020</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Kings XI won by 97 runs</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
   </ignoredErrors>
 </worksheet>
 </file>